--- a/Event Stormin/Proveedor-EventStorming.xlsx
+++ b/Event Stormin/Proveedor-EventStorming.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan pablo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ESTEBAN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9356C9BB-1F27-4F6C-A46E-4C719BEEF160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC267345-96C1-4E62-B675-07FD253317BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
     <sheet name="Listado Objetos de Dominio" sheetId="67" r:id="rId2"/>
-    <sheet name="Producto" sheetId="66" r:id="rId3"/>
+    <sheet name="Tienda" sheetId="66" r:id="rId3"/>
     <sheet name="Proveedor" sheetId="24" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Listado Objetos de Dominio'!$A$3:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>Descripción</t>
   </si>
@@ -163,12 +166,6 @@
     <t>Descripción contexto</t>
   </si>
   <si>
-    <t xml:space="preserve">Producto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objeto de dominio el cual nos representa un articulo que se puede comprar en la tienda </t>
-  </si>
-  <si>
     <t>Propia</t>
   </si>
   <si>
@@ -184,87 +181,12 @@
     <t>contexto que contiene la información de cada uno de los proveedores que llevan productos a la tienda</t>
   </si>
   <si>
-    <t>Crear producto</t>
-  </si>
-  <si>
-    <t>Accion la cual es la encargada de poner en servicio el producto que se necesita</t>
-  </si>
-  <si>
-    <t>producto</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t>Pol-Producto-001</t>
-  </si>
-  <si>
-    <t>no puede existir mas de un producto con el mismo nombre y marca</t>
-  </si>
-  <si>
-    <t>Pol-Producto-002</t>
-  </si>
-  <si>
-    <t>Los datos deben ser validos a nivel de tipo de dato, obigatoriedad, formato y rango</t>
-  </si>
-  <si>
-    <t>Producto creado</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
     <t>Vendedor</t>
   </si>
   <si>
-    <t>consultar producto</t>
-  </si>
-  <si>
-    <t>Accion la cual es la encargada de dejar consultar un producto que sea necesario</t>
-  </si>
-  <si>
-    <t>Pol-Producto-003</t>
-  </si>
-  <si>
-    <t>si se envian parametros de consulta deben ser validos a nivel tipo de dato, longitud, obligatoriedad, formato y rango</t>
-  </si>
-  <si>
-    <t>Producto consultado</t>
-  </si>
-  <si>
-    <t>Producto</t>
-  </si>
-  <si>
-    <t>Accion la cual es encargada de modificar un producto que sea necesario</t>
-  </si>
-  <si>
-    <t>Pol-Producto-004</t>
-  </si>
-  <si>
-    <t>Debe existir el producto que se este modificando</t>
-  </si>
-  <si>
-    <t>Producto modificado</t>
-  </si>
-  <si>
-    <t>Modificar producto</t>
-  </si>
-  <si>
-    <t>Eliminar producto</t>
-  </si>
-  <si>
-    <t>Accion la cual es encargada de eliminar un producto seleccionado</t>
-  </si>
-  <si>
-    <t>Pol-Producto-005</t>
-  </si>
-  <si>
-    <t>Debe existir el producto que se este eliminando</t>
-  </si>
-  <si>
-    <t>Producto eliminado</t>
-  </si>
-  <si>
     <t>Proveedores</t>
   </si>
   <si>
@@ -344,13 +266,85 @@
   </si>
   <si>
     <t>Proveedor eliminado</t>
+  </si>
+  <si>
+    <t>Tienda</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa la tienda fisica o virtual donde se pueden realizar las compras</t>
+  </si>
+  <si>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Crear tienda</t>
+  </si>
+  <si>
+    <t>Accion la cual se encarga de poner en servicio una tienda para vender productos para el servicio al cliente</t>
+  </si>
+  <si>
+    <t>tienda</t>
+  </si>
+  <si>
+    <t>Pol-tienda-001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no se puede crear una nueva tienda sin darle una ubicación precisa </t>
+  </si>
+  <si>
+    <t>tienda creada</t>
+  </si>
+  <si>
+    <t>Pol-tienda-002</t>
+  </si>
+  <si>
+    <t>No se puede crear una nueva tienda sin darle un nombre a la tienda y a la sede, tiene que cumplir que ninguno de estos nombres se repita</t>
+  </si>
+  <si>
+    <t>Consultar tienda</t>
+  </si>
+  <si>
+    <t>Accion la cual se encarga de consultar lo que contiene la tienda</t>
+  </si>
+  <si>
+    <t>si se envian parametros de consulta deben ser validos a nivel tipo de dato, longitud, obligatoriedad, fromato, rango</t>
+  </si>
+  <si>
+    <t>tienda consultada</t>
+  </si>
+  <si>
+    <t>Modificar tienda</t>
+  </si>
+  <si>
+    <t>Accion la cual se encarga de modificar la tienda y lo que contiene</t>
+  </si>
+  <si>
+    <t>El nombre de la tienda y sede solo se podran modificar teniendo en cuenta el parametro de que no se puede repetir</t>
+  </si>
+  <si>
+    <t>tienda modificada</t>
+  </si>
+  <si>
+    <t>Los datos del vendedor de la tienda se podran modificar teniendo en cuenta que no se puede repetir un mismo vendedor en diferentes tiendas</t>
+  </si>
+  <si>
+    <t>Eliminar tienda</t>
+  </si>
+  <si>
+    <t>Accion la cual se encarga de cerrar una tienda al publico</t>
+  </si>
+  <si>
+    <t>Debe existir la tienda que se esta eliminando</t>
+  </si>
+  <si>
+    <t>tienda eliminada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,14 +397,6 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -428,8 +414,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+    </font>
   </fonts>
-  <fills count="21">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -540,18 +536,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -666,6 +674,89 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -685,57 +776,9 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -743,32 +786,8 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -777,7 +796,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -837,12 +856,98 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -891,72 +996,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -964,111 +1017,163 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1106,23 +1211,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>616323</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>109272</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>641140</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>143746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1203B3-C769-3E98-42E0-20EB8337D674}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70CFF561-A6B6-2772-23FE-B1ADC7F4DF8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,8 +1243,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4426323" y="224117"/>
-          <a:ext cx="5020235" cy="4838155"/>
+          <a:off x="3272118" y="537882"/>
+          <a:ext cx="9202434" cy="6239746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1151,10 +1256,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Flujo de eventos en el tiempo"/>
+      <sheetName val="Listado Objetos de Dominio"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="Tienda"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Tienda</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Objeto de dominio que representa la tienda fisica o virtual donde se pueden realizar las compras</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1192,7 +1328,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1298,7 +1434,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1440,7 +1576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1454,12 +1590,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1"/>
     </row>
   </sheetData>
@@ -1471,43 +1607,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="5" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="47"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
@@ -1521,33 +1657,39 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="D4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" s="42" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="130" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="81" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>31</v>
-      </c>
+      <c r="D5" s="81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="77"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1555,8 +1697,8 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A4" location="'Producto '!A1" display="'Producto '!A1" xr:uid="{5ED91865-101D-4D54-A651-2D837C8D125E}"/>
-    <hyperlink ref="A5" location="'Proveedor '!A1" display="'Proveedor '!A1" xr:uid="{3ADF27C0-0A18-47AF-8A79-9FFF7FDE35D4}"/>
+    <hyperlink ref="A4" location="'Proveedor '!A1" display="'Proveedor '!A1" xr:uid="{3ADF27C0-0A18-47AF-8A79-9FFF7FDE35D4}"/>
+    <hyperlink ref="A5" location="Tienda!A1" display="Tienda" xr:uid="{D5EEA836-96E5-4116-8261-6D0FE6BA7C43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1569,111 +1711,112 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C9"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="46.21875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="str">
-        <f>'Listado Objetos de Dominio'!$A$4</f>
-        <v xml:space="preserve">Producto </v>
-      </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="B2" s="65" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$A$5</f>
+        <v>Tienda</v>
+      </c>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="str">
-        <f>'Listado Objetos de Dominio'!$B$4</f>
-        <v xml:space="preserve">Objeto de dominio el cual nos representa un articulo que se puede comprar en la tienda </v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="B3" s="67" t="str">
+        <f>'[1]Listado Objetos de Dominio'!$B$5</f>
+        <v>Objeto de dominio que representa la tienda fisica o virtual donde se pueden realizar las compras</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -1683,52 +1826,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="64" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="24"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+    </row>
+    <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -1741,386 +1884,323 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="49"/>
-      <c r="L7" s="16" t="str">
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="1:14" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="85" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="86" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="83"/>
+      <c r="L7" s="85" t="str">
         <f>J10</f>
-        <v>Producto consultado</v>
-      </c>
-      <c r="M7" s="3" t="str">
+        <v>tienda consultada</v>
+      </c>
+      <c r="M7" s="87" t="str">
         <f>B10</f>
-        <v>consultar producto</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="74" t="str">
+        <v>Consultar tienda</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="89"/>
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="83" t="str">
         <f>J16</f>
-        <v>Producto eliminado</v>
-      </c>
-      <c r="M8" s="3" t="str">
+        <v>tienda eliminada</v>
+      </c>
+      <c r="M8" s="87" t="str">
         <f>B13</f>
-        <v>Modificar producto</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="3" t="str">
+        <v>Modificar tienda</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="88"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="87" t="str">
         <f>B16</f>
-        <v>Eliminar producto</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="55" t="str">
+        <v>Eliminar tienda</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98" t="s">
+        <v>76</v>
+      </c>
+      <c r="K10" s="98"/>
+      <c r="L10" s="100" t="str">
         <f>J7</f>
-        <v>Producto creado</v>
-      </c>
-      <c r="M10" s="56" t="str">
+        <v>tienda creada</v>
+      </c>
+      <c r="M10" s="101" t="str">
         <f>B7</f>
-        <v>Crear producto</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="62" t="str">
+        <v>Crear tienda</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="95"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="106" t="str">
         <f>J13</f>
-        <v>Producto modificado</v>
-      </c>
-      <c r="M11" s="63" t="str">
+        <v>tienda modificada</v>
+      </c>
+      <c r="M11" s="107" t="str">
         <f>B13</f>
-        <v>Modificar producto</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="62" t="str">
+        <v>Modificar tienda</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="95"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="100" t="str">
         <f>J16</f>
-        <v>Producto eliminado</v>
-      </c>
-      <c r="M12" s="55" t="str">
+        <v>tienda eliminada</v>
+      </c>
+      <c r="M12" s="100" t="str">
         <f>B16</f>
-        <v>Eliminar producto</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="64" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="K13" s="64"/>
-      <c r="L13" s="58" t="str">
+        <v>Eliminar tienda</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="113" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="115" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="116" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="113"/>
+      <c r="L13" s="115" t="str">
+        <f>J10</f>
+        <v>tienda consultada</v>
+      </c>
+      <c r="M13" s="115" t="str">
+        <f>B10</f>
+        <v>Consultar tienda</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="114"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="113"/>
+      <c r="G14" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="118" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="113"/>
+      <c r="J14" s="113"/>
+      <c r="K14" s="113"/>
+      <c r="L14" s="113" t="str">
         <f>J7</f>
-        <v>Producto creado</v>
-      </c>
-      <c r="M13" s="58" t="str">
+        <v>tienda creada</v>
+      </c>
+      <c r="M14" s="113" t="str">
+        <f>B16</f>
+        <v>Eliminar tienda</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
+      <c r="K15" s="113"/>
+      <c r="L15" s="113"/>
+      <c r="M15" s="113"/>
+    </row>
+    <row r="16" spans="1:14" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="121" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="121" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="122" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="121" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="123" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" s="125"/>
+      <c r="L16" s="126" t="str">
+        <f>J7</f>
+        <v>tienda creada</v>
+      </c>
+      <c r="M16" s="126" t="str">
+        <f>B7</f>
+        <v>Crear tienda</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="121"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="126" t="str">
+        <f>J13</f>
+        <v>tienda modificada</v>
+      </c>
+      <c r="M17" s="123" t="str">
         <f>B10</f>
-        <v>consultar producto</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="86" t="str">
+        <v>Consultar tienda</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="121"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="126" t="str">
         <f>J10</f>
-        <v>Producto consultado</v>
-      </c>
-      <c r="M14" s="58" t="str">
-        <f>B7</f>
-        <v>Crear producto</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="58" t="str">
-        <f>B16</f>
-        <v>Eliminar producto</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="72" t="s">
-        <v>61</v>
-      </c>
-      <c r="K16" s="72"/>
-      <c r="L16" s="69" t="str">
-        <f>J7</f>
-        <v>Producto creado</v>
-      </c>
-      <c r="M16" s="69" t="str">
-        <f>B7</f>
-        <v>Crear producto</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="69" t="str">
-        <f>J10</f>
-        <v>Producto consultado</v>
-      </c>
-      <c r="M17" s="88" t="str">
-        <f>B10</f>
-        <v>consultar producto</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="69" t="str">
-        <f>J13</f>
-        <v>Producto modificado</v>
-      </c>
-      <c r="M18" s="88"/>
+        <v>tienda consultada</v>
+      </c>
+      <c r="M18" s="125"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K13:K15"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="65">
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2136,11 +2216,57 @@
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K13:K15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="J16:J18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="C16:C18"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
-    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{85C4F268-FFCD-4AAD-93E1-54DD92A1C2E1}"/>
+    <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{56FB2CF6-D4DE-4425-A69B-0ED6E7719408}"/>
+    <hyperlink ref="D1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{B5C2CB2A-34F6-48B7-BEE6-98B7BE82B178}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2156,108 +2282,108 @@
       <selection pane="bottomLeft" activeCell="G16" sqref="G16:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="18.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="38" style="1" customWidth="1"/>
-    <col min="13" max="13" width="45.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="132.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="46.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="50.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="66.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="52.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="13" width="45.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="132.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="46.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="50.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="66.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="52.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="str">
-        <f>'Listado Objetos de Dominio'!$A$5</f>
+      <c r="B2" s="65" t="str">
+        <f>'Listado Objetos de Dominio'!$A$4</f>
         <v xml:space="preserve">Proveedor </v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="36"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="37" t="str">
-        <f>'Listado Objetos de Dominio'!$B$5</f>
+      <c r="B3" s="67" t="str">
+        <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio el cual representa una empresa que suministra productos a la tienda</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="38"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="68"/>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="57"/>
       <c r="D4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="30" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="30"/>
+      <c r="H4" s="60"/>
       <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
@@ -2267,52 +2393,52 @@
       <c r="K4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="33" t="s">
+      <c r="L4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="34" t="s">
+      <c r="M4" s="64" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="51"/>
+      <c r="G5" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="31" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="24"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="64"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2325,38 +2451,38 @@
       <c r="H6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="I6" s="61"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="64"/>
+    </row>
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="77" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
+      <c r="B7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
       <c r="G7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="49"/>
+        <v>38</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="37"/>
       <c r="L7" s="16" t="str">
         <f>J10</f>
         <v>Proveedor consultado</v>
@@ -2366,23 +2492,23 @@
         <v>Consultar proveedor</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="80"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
+    <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="49"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="74" t="str">
+        <v>40</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="35" t="str">
         <f>J16</f>
         <v>Proveedor eliminado</v>
       </c>
@@ -2391,273 +2517,315 @@
         <v>Modificar proveedor</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
+    <row r="9" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="50"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="50" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="75"/>
+        <v>42</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="36"/>
       <c r="M9" s="3" t="str">
         <f>B16</f>
         <v>Eliminar proveedor</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="53" t="s">
+    <row r="10" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="55" t="str">
+      <c r="B10" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="42"/>
+      <c r="L10" s="25" t="str">
         <f>J7</f>
         <v>Proveedor creado</v>
       </c>
-      <c r="M10" s="55" t="str">
+      <c r="M10" s="25" t="str">
         <f>B7</f>
         <v>Crear proveedor</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="55" t="str">
+    <row r="11" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="25" t="str">
         <f>J13</f>
         <v>Proveedor modificado</v>
       </c>
-      <c r="M11" s="55" t="str">
+      <c r="M11" s="25" t="str">
         <f>B13</f>
         <v>Modificar proveedor</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="55" t="str">
+    <row r="12" spans="1:14" ht="59.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="25" t="str">
         <f>J16</f>
         <v>Proveedor eliminado</v>
       </c>
-      <c r="M12" s="55" t="str">
+      <c r="M12" s="25" t="str">
         <f>B16</f>
         <v>Eliminar proveedor</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="89" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="89" t="s">
+    <row r="13" spans="1:14" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="91" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89" t="s">
-        <v>81</v>
-      </c>
-      <c r="K13" s="89"/>
-      <c r="L13" s="91" t="str">
+      <c r="B13" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="73"/>
+      <c r="L13" s="27" t="str">
         <f>J7</f>
         <v>Proveedor creado</v>
       </c>
-      <c r="M13" s="91" t="str">
+      <c r="M13" s="27" t="str">
         <f>Proveedor!B7</f>
         <v>Crear proveedor</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="92" t="s">
-        <v>70</v>
-      </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="97" t="str">
+    <row r="14" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="69" t="str">
         <f>J10</f>
         <v>Proveedor consultado</v>
       </c>
-      <c r="M14" s="91" t="str">
+      <c r="M14" s="27" t="str">
         <f>B10</f>
         <v>Consultar proveedor</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="91" t="s">
-        <v>79</v>
-      </c>
-      <c r="H15" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="91" t="str">
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="27" t="str">
         <f>B16</f>
         <v>Eliminar proveedor</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="93" t="s">
+    <row r="16" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="95" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="96" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="93"/>
-      <c r="J16" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16" s="93"/>
-      <c r="L16" s="95" t="str">
+      <c r="B16" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="K16" s="74"/>
+      <c r="L16" s="29" t="str">
         <f>J7</f>
         <v>Proveedor creado</v>
       </c>
-      <c r="M16" s="95" t="str">
+      <c r="M16" s="29" t="str">
         <f>B7</f>
         <v>Crear proveedor</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="96" t="s">
-        <v>85</v>
-      </c>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="95" t="str">
+    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="29" t="str">
         <f>J10</f>
         <v>Proveedor consultado</v>
       </c>
-      <c r="M17" s="99" t="str">
+      <c r="M17" s="71" t="str">
         <f>B10</f>
         <v>Consultar proveedor</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="195" x14ac:dyDescent="0.25">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="I18" s="93"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="93"/>
-      <c r="L18" s="95" t="str">
+    <row r="18" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="29" t="str">
         <f>J13</f>
         <v>Proveedor modificado</v>
       </c>
-      <c r="M18" s="100"/>
+      <c r="M18" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="L4:L6"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="K16:K18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J16:J18"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="L14:L15"/>
@@ -2674,50 +2842,8 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="C16:C18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J16:J18"/>
-    <mergeCell ref="K16:K18"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="L4:L6"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="I5:I6"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{79C12EC1-52AC-413E-AC64-706EBBEE7DDD}"/>
     <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CEFBA896-B5C8-4F54-8445-F270CCC4F878}"/>
@@ -2728,9 +2854,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2878,27 +3007,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2922,9 +3039,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
